--- a/统计.xlsx
+++ b/统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -108,9 +108,6 @@
     <t xml:space="preserve"> 时间</t>
   </si>
   <si>
-    <t>检测到的克隆对</t>
-  </si>
-  <si>
     <t>备注：0.7 最小行数6 16threads</t>
   </si>
   <si>
@@ -126,10 +123,37 @@
     <t>12min21s</t>
   </si>
   <si>
-    <t>9002s</t>
-  </si>
-  <si>
-    <t>2018年 07月 09日 星期一 14:35:23 CST</t>
+    <t>12h27min17s</t>
+  </si>
+  <si>
+    <t>2018年 07月 09日 星期一 19:44:26 CST</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>CCFinder(KB)</t>
+  </si>
+  <si>
+    <t>1.48KB</t>
+  </si>
+  <si>
+    <t>14KB</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>207KB</t>
+  </si>
+  <si>
+    <t>39s</t>
+  </si>
+  <si>
+    <t>270KB</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -477,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +657,7 @@
         <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1"/>
       <c r="M13" t="s">
@@ -650,13 +674,19 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -664,7 +694,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -672,7 +705,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -680,7 +716,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -688,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
         <v>35</v>
-      </c>
-      <c r="M19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -702,19 +741,20 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -723,6 +763,9 @@
       <c r="B23">
         <v>21</v>
       </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -731,6 +774,9 @@
       <c r="B24">
         <v>774</v>
       </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -739,6 +785,9 @@
       <c r="B25">
         <v>13594</v>
       </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -746,6 +795,9 @@
       </c>
       <c r="B26">
         <v>363761</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>6min3s</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +722,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>6min3s</t>
+  </si>
+  <si>
+    <t>Nicad</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>11s</t>
+  </si>
+  <si>
+    <t>19min49s</t>
   </si>
 </sst>
 </file>
@@ -505,7 +520,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +669,9 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>28</v>
@@ -680,6 +697,9 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -691,6 +711,9 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -702,6 +725,9 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -713,6 +739,9 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -724,6 +753,9 @@
       <c r="C18" t="s">
         <v>45</v>
       </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -731,6 +763,9 @@
       </c>
       <c r="B19" t="s">
         <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>19min49s</t>
+  </si>
+  <si>
+    <t>9h49min</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +767,9 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -168,13 +168,22 @@
     <t>\</t>
   </si>
   <si>
-    <t>11s</t>
-  </si>
-  <si>
     <t>19min49s</t>
   </si>
   <si>
     <t>9h49min</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>20min01s</t>
+  </si>
+  <si>
+    <t>4.7M</t>
+  </si>
+  <si>
+    <t>12min31s</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,12 +237,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,29 +596,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>8</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -625,15 +621,15 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.7</v>
@@ -642,77 +638,97 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0.7</v>
       </c>
       <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="H13" s="4" t="s">
+      <c r="E14" s="1"/>
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="M13" t="s">
+      <c r="K14" s="1"/>
+      <c r="M14" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q14" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -720,137 +736,149 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>774</v>
-      </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>13594</v>
+        <v>774</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>363761</v>
+        <v>13594</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>363761</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
-        <v>2784</v>
-      </c>
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -156,9 +156,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>6min3s</t>
-  </si>
-  <si>
     <t>Nicad</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>12min31s</t>
+  </si>
+  <si>
+    <t>6min30s</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -686,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1"/>
       <c r="H14" s="3" t="s">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -184,18 +184,53 @@
   </si>
   <si>
     <t>6min30s</t>
+  </si>
+  <si>
+    <t>MY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12min23s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -525,21 +560,21 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -557,7 +592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>16</v>
       </c>
@@ -585,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -596,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -607,7 +642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -627,7 +662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>8</v>
       </c>
@@ -644,7 +679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>16</v>
       </c>
@@ -661,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -675,7 +710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>4</v>
       </c>
@@ -692,20 +727,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
@@ -720,94 +757,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -822,7 +877,7 @@
       <c r="F22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -830,7 +885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -841,7 +896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -852,7 +907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -863,7 +918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -874,13 +929,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/统计.xlsx
+++ b/统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>SourcerCC</t>
   </si>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>207KB</t>
-  </si>
-  <si>
-    <t>39s</t>
-  </si>
-  <si>
-    <t>270KB</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Nicad</t>
@@ -212,23 +203,35 @@
   <si>
     <t>12min23s</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourcererCC</t>
+  </si>
+  <si>
+    <t>3333KB</t>
+  </si>
+  <si>
+    <t>57s</t>
+  </si>
+  <si>
+    <t>114282KB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,22 +562,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -592,7 +595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -609,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="B3">
         <v>16</v>
       </c>
@@ -620,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4">
         <v>1</v>
       </c>
@@ -631,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5">
         <v>4</v>
       </c>
@@ -639,12 +642,12 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -662,7 +665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8">
         <v>8</v>
       </c>
@@ -679,7 +682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9">
         <v>16</v>
       </c>
@@ -696,7 +699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10">
         <v>8</v>
       </c>
@@ -710,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11">
         <v>4</v>
       </c>
@@ -721,27 +724,27 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>28</v>
@@ -757,12 +760,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -771,15 +774,15 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -788,15 +791,15 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -808,128 +811,127 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>774</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>13594</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>363761</v>
       </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>22</v>
       </c>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -174,9 +174,6 @@
     <t>12min31s</t>
   </si>
   <si>
-    <t>6min30s</t>
-  </si>
-  <si>
     <t>MY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>114282KB</t>
+  </si>
+  <si>
+    <t>7min29s</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -782,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -816,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -833,13 +833,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -850,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
@@ -917,7 +917,7 @@
         <v>13594</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -928,7 +928,7 @@
         <v>363761</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:13">
